--- a/coordinates/towns.xlsx
+++ b/coordinates/towns.xlsx
@@ -808,10 +808,10 @@
         <v>117</v>
       </c>
       <c r="D4">
-        <v>28.4953489</v>
+        <v>28.4541467</v>
       </c>
       <c r="E4">
-        <v>77.2665293</v>
+        <v>77.2301861</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1618,10 +1618,10 @@
         <v>118</v>
       </c>
       <c r="D52">
-        <v>28.7320031</v>
+        <v>28.73514</v>
       </c>
       <c r="E52">
-        <v>77.0318273</v>
+        <v>77.0325105</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1873,10 +1873,10 @@
         <v>119</v>
       </c>
       <c r="D67">
-        <v>28.6927155</v>
+        <v>28.6882468</v>
       </c>
       <c r="E67">
-        <v>77.3007192</v>
+        <v>77.2989225</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2159,10 +2159,10 @@
         <v>118</v>
       </c>
       <c r="D84">
-        <v>28.5765037</v>
+        <v>28.576552</v>
       </c>
       <c r="E84">
-        <v>77.3196846</v>
+        <v>77.3197643</v>
       </c>
     </row>
     <row r="85" spans="1:5">
